--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C2F746-FADC-471E-B9B1-04DF144EB4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37A2B8A-A861-4C7D-9602-8F911E98DE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -157,6 +157,30 @@
   </si>
   <si>
     <t>J'ai ajouté les Storys: Afficher le menu; Afficher l'aide du jeu; Codé les bateaux dans le programme; Demander où tirer; Tirer; Créer l'affichage du tableau pendant la partie, ainsi que ses tasks. M. Viret m'a aidé</t>
+  </si>
+  <si>
+    <t>M. Viret m'a aidé a mettre mes fichiers sur GitHub</t>
+  </si>
+  <si>
+    <t>Dossier de projet</t>
+  </si>
+  <si>
+    <t>J'ai récupéré et push le dossier du projet</t>
+  </si>
+  <si>
+    <t>M. Viret m'a montré les Features</t>
+  </si>
+  <si>
+    <t>J'ai créer les Features 0.1 (bleu) et 1.0 (rouge)</t>
+  </si>
+  <si>
+    <t>J'ai ajouté les Storys: S'authentifier en tant que joueur; Créer les 5 cartes; Choisir une grille au hasard; Afficher la liste de scores;  Logger les faits importants</t>
+  </si>
+  <si>
+    <t>Recherche internet</t>
+  </si>
+  <si>
+    <t>J'ai cherché sur internet comment dire Bataille Navale en anglais (Battleship)</t>
   </si>
 </sst>
 </file>
@@ -413,7 +437,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -458,16 +482,6 @@
     <dxf>
       <font>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -672,18 +686,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H32" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="13">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -952,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1637,10 +1651,12 @@
       <c r="B27" s="24">
         <v>0.44722222222222219</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="24">
+        <v>0.5</v>
+      </c>
       <c r="D27" s="20">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>-0.44722222222222219</v>
+        <v>5.2777777777777812E-2</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
@@ -1648,8 +1664,139 @@
       <c r="F27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>44608</v>
+      </c>
+      <c r="B28" s="24">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="D28" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <v>44608</v>
+      </c>
+      <c r="B29" s="24">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="D29" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <v>44608</v>
+      </c>
+      <c r="B30" s="24">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="D30" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>44608</v>
+      </c>
+      <c r="B31" s="24">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="D31" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>44608</v>
+      </c>
+      <c r="B32" s="24">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="D32" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.083333333333437E-3</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -1665,7 +1812,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D196:D1048576 D1:D169">
+  <conditionalFormatting sqref="D201:D1048576 D1:D174">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr showObjects="none"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37A2B8A-A861-4C7D-9602-8F911E98DE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -177,21 +176,36 @@
     <t>J'ai ajouté les Storys: S'authentifier en tant que joueur; Créer les 5 cartes; Choisir une grille au hasard; Afficher la liste de scores;  Logger les faits importants</t>
   </si>
   <si>
-    <t>Recherche internet</t>
-  </si>
-  <si>
     <t>J'ai cherché sur internet comment dire Bataille Navale en anglais (Battleship)</t>
+  </si>
+  <si>
+    <t>https://www.linguee.fr/francais-anglais/traduction/bataille+navale.html</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>https://www.textconverter.io/fr/different-letters/</t>
+  </si>
+  <si>
+    <t>J'ai cherché un site internet pour changer la police (j'ai fini par pas l'utiliser)</t>
+  </si>
+  <si>
+    <t>J'ai "dessiné" le mot Battleship" avec des caractères spéciaux</t>
+  </si>
+  <si>
+    <t>https://theasciicode.com.ar/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
     <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +238,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -328,10 +350,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,11 +456,201 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -489,189 +702,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -686,18 +716,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H32" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H34" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="13">
+    <tableColumn id="1" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" name="Heure début" dataDxfId="6"/>
+    <tableColumn id="3" name="Heure fin" dataDxfId="5"/>
+    <tableColumn id="4" name="Durée" dataDxfId="4">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
+    <tableColumn id="5" name="Lieu" dataDxfId="3"/>
+    <tableColumn id="6" name="Thème" dataDxfId="2"/>
+    <tableColumn id="7" name="Description" dataDxfId="1"/>
+    <tableColumn id="8" name="Sources" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -965,26 +995,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="10" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="105.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="42.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="105.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44594</v>
       </c>
@@ -1035,7 +1065,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44594</v>
       </c>
@@ -1062,7 +1092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44594</v>
       </c>
@@ -1087,7 +1117,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44594</v>
       </c>
@@ -1113,7 +1143,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44594</v>
       </c>
@@ -1138,7 +1168,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44594</v>
       </c>
@@ -1165,7 +1195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44594</v>
       </c>
@@ -1190,7 +1220,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44594</v>
       </c>
@@ -1215,7 +1245,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>44594</v>
       </c>
@@ -1240,7 +1270,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>44595</v>
       </c>
@@ -1265,7 +1295,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>44595</v>
       </c>
@@ -1290,7 +1320,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>44595</v>
       </c>
@@ -1315,7 +1345,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>44595</v>
       </c>
@@ -1340,7 +1370,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>44595</v>
       </c>
@@ -1365,7 +1395,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>44595</v>
       </c>
@@ -1390,7 +1420,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>44595</v>
       </c>
@@ -1415,7 +1445,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>44595</v>
       </c>
@@ -1440,7 +1470,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>44608</v>
       </c>
@@ -1465,7 +1495,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>44608</v>
       </c>
@@ -1492,7 +1522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44608</v>
       </c>
@@ -1517,7 +1547,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44608</v>
       </c>
@@ -1542,7 +1572,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44608</v>
       </c>
@@ -1567,7 +1597,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44608</v>
       </c>
@@ -1592,7 +1622,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>44608</v>
       </c>
@@ -1617,7 +1647,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>44608</v>
       </c>
@@ -1644,7 +1674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>44608</v>
       </c>
@@ -1671,7 +1701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>44608</v>
       </c>
@@ -1696,7 +1726,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>44608</v>
       </c>
@@ -1723,7 +1753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>44608</v>
       </c>
@@ -1748,7 +1778,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>44608</v>
       </c>
@@ -1773,7 +1803,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>44608</v>
       </c>
@@ -1791,59 +1821,120 @@
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>44608</v>
+      </c>
+      <c r="B33" s="19">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C33" s="19">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="D33" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.0833333333332149E-3</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>44608</v>
+      </c>
+      <c r="B34" s="24">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D34" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Date">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Date">
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D201:D1048576 D1:D174">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="D202:D1048576 D1:D175">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Durée">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Durée">
       <formula>NOT(ISERROR(SEARCH("Durée",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Durée">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Durée">
       <formula>NOT(ISERROR(SEARCH("Durée",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H32" r:id="rId1"/>
+    <hyperlink ref="H33" r:id="rId2"/>
+    <hyperlink ref="H34" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85088FE4-F794-4CCF-9D1F-E7417200DF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -182,25 +183,52 @@
     <t>https://www.linguee.fr/francais-anglais/traduction/bataille+navale.html</t>
   </si>
   <si>
-    <t>Menu</t>
-  </si>
-  <si>
     <t>https://www.textconverter.io/fr/different-letters/</t>
   </si>
   <si>
     <t>J'ai cherché un site internet pour changer la police (j'ai fini par pas l'utiliser)</t>
   </si>
   <si>
-    <t>J'ai "dessiné" le mot Battleship" avec des caractères spéciaux</t>
-  </si>
-  <si>
     <t>https://theasciicode.com.ar/</t>
+  </si>
+  <si>
+    <t>J'ai "dessiné" le mot Battleship avec des caractères spéciaux</t>
+  </si>
+  <si>
+    <t>https://moodle.cpnv.ch/moodle/pluginfile.php/90553/mod_resource/content/3/main.c</t>
+  </si>
+  <si>
+    <t>J'ai cherché sur internet des bateaux dessinés en caractères</t>
+  </si>
+  <si>
+    <t>http://www.ascii-fr.com/-Bateaux-.htmlhttp://www.ascii-fr.com/-Bateaux-.html</t>
+  </si>
+  <si>
+    <t>J'ai mis ensemble mes deux bateaux en caractères préferés dans un printf</t>
+  </si>
+  <si>
+    <t>J'ai cherché la commande pour les accents, pour que mon dessin puisse s'afficher</t>
+  </si>
+  <si>
+    <t>J'ai copié mon dessin dans un printf pour que ça soit mon titre</t>
+  </si>
+  <si>
+    <t>https://www.includehelp.com/c-programming-questions/how-to-clear-output-screen-in-c.aspx</t>
+  </si>
+  <si>
+    <t>J'ai ajouté une comande que j'ai trouvé sur internet pour nettoyer Output de l'écran</t>
+  </si>
+  <si>
+    <t>Début du jeu</t>
+  </si>
+  <si>
+    <t>J'ai créer la fonction avec le début du jeu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
     <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
@@ -469,189 +497,6 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -702,6 +547,189 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -716,18 +744,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H34" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H40" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
-    <tableColumn id="1" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" name="Heure début" dataDxfId="6"/>
-    <tableColumn id="3" name="Heure fin" dataDxfId="5"/>
-    <tableColumn id="4" name="Durée" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="13">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lieu" dataDxfId="3"/>
-    <tableColumn id="6" name="Thème" dataDxfId="2"/>
-    <tableColumn id="7" name="Description" dataDxfId="1"/>
-    <tableColumn id="8" name="Sources" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -995,26 +1023,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="10" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="105.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="105.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="42.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44594</v>
       </c>
@@ -1065,7 +1093,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44594</v>
       </c>
@@ -1092,7 +1120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>44594</v>
       </c>
@@ -1117,7 +1145,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>44594</v>
       </c>
@@ -1143,7 +1171,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>44594</v>
       </c>
@@ -1168,7 +1196,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>44594</v>
       </c>
@@ -1195,7 +1223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>44594</v>
       </c>
@@ -1220,7 +1248,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44594</v>
       </c>
@@ -1245,7 +1273,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>44594</v>
       </c>
@@ -1270,7 +1298,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>44595</v>
       </c>
@@ -1295,7 +1323,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>44595</v>
       </c>
@@ -1320,7 +1348,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>44595</v>
       </c>
@@ -1345,7 +1373,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>44595</v>
       </c>
@@ -1370,7 +1398,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>44595</v>
       </c>
@@ -1395,7 +1423,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>44595</v>
       </c>
@@ -1420,7 +1448,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>44595</v>
       </c>
@@ -1445,7 +1473,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>44595</v>
       </c>
@@ -1470,7 +1498,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>44608</v>
       </c>
@@ -1495,7 +1523,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>44608</v>
       </c>
@@ -1522,7 +1550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>44608</v>
       </c>
@@ -1547,7 +1575,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>44608</v>
       </c>
@@ -1572,7 +1600,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>44608</v>
       </c>
@@ -1597,7 +1625,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>44608</v>
       </c>
@@ -1622,7 +1650,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>44608</v>
       </c>
@@ -1647,7 +1675,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>44608</v>
       </c>
@@ -1674,7 +1702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>44608</v>
       </c>
@@ -1701,7 +1729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>44608</v>
       </c>
@@ -1726,7 +1754,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>44608</v>
       </c>
@@ -1753,7 +1781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>44608</v>
       </c>
@@ -1778,7 +1806,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>44608</v>
       </c>
@@ -1803,7 +1831,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>44608</v>
       </c>
@@ -1821,7 +1849,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>47</v>
@@ -1830,7 +1858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>44608</v>
       </c>
@@ -1847,17 +1875,17 @@
       <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>44608</v>
       </c>
@@ -1875,66 +1903,222 @@
         <v>8</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H34" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>44608</v>
+      </c>
+      <c r="B35" s="19">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="C35" s="19">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="D35" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>4.8611111111112049E-3</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="36" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <v>44608</v>
+      </c>
+      <c r="B36" s="24">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D36" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
+        <v>44608</v>
+      </c>
+      <c r="B37" s="24">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="D37" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>5.5555555555557579E-3</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>44608</v>
+      </c>
+      <c r="B38" s="24">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="D38" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.0138888888888928E-2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <v>44608</v>
+      </c>
+      <c r="B39" s="24">
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0.91180555555555554</v>
+      </c>
+      <c r="D39" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.3888888888887729E-3</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>44608</v>
+      </c>
+      <c r="B40" s="24">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>-0.91388888888888886</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Date">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Date">
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D202:D1048576 D1:D175">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="D207:D1048576 D1:D180">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Durée">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Durée">
       <formula>NOT(ISERROR(SEARCH("Durée",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D20">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Durée">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Durée">
       <formula>NOT(ISERROR(SEARCH("Durée",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H32" r:id="rId1"/>
-    <hyperlink ref="H33" r:id="rId2"/>
-    <hyperlink ref="H34" r:id="rId3"/>
+    <hyperlink ref="H32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H35" r:id="rId4" xr:uid="{98BB3E39-3F7A-49D8-83E9-FCCD2E7E56CD}"/>
+    <hyperlink ref="H37" r:id="rId5" xr:uid="{A1CE36F6-48A0-4BA4-83E4-CA0A554C9DF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr showObjects="none"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85088FE4-F794-4CCF-9D1F-E7417200DF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -181,12 +180,6 @@
   </si>
   <si>
     <t>https://www.linguee.fr/francais-anglais/traduction/bataille+navale.html</t>
-  </si>
-  <si>
-    <t>https://www.textconverter.io/fr/different-letters/</t>
-  </si>
-  <si>
-    <t>J'ai cherché un site internet pour changer la police (j'ai fini par pas l'utiliser)</t>
   </si>
   <si>
     <t>https://theasciicode.com.ar/</t>
@@ -228,7 +221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
     <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
@@ -744,18 +737,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H40" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H39" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="13">
+    <tableColumn id="1" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" name="Heure début" dataDxfId="15"/>
+    <tableColumn id="3" name="Heure fin" dataDxfId="14"/>
+    <tableColumn id="4" name="Durée" dataDxfId="13">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
+    <tableColumn id="5" name="Lieu" dataDxfId="12"/>
+    <tableColumn id="6" name="Thème" dataDxfId="11"/>
+    <tableColumn id="7" name="Description" dataDxfId="10"/>
+    <tableColumn id="8" name="Sources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1023,26 +1016,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:F42"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="10" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="105.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="42.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="105.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44594</v>
       </c>
@@ -1093,7 +1086,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44594</v>
       </c>
@@ -1120,7 +1113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44594</v>
       </c>
@@ -1145,7 +1138,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44594</v>
       </c>
@@ -1171,7 +1164,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44594</v>
       </c>
@@ -1196,7 +1189,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44594</v>
       </c>
@@ -1223,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44594</v>
       </c>
@@ -1248,7 +1241,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44594</v>
       </c>
@@ -1273,7 +1266,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>44594</v>
       </c>
@@ -1298,7 +1291,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>44595</v>
       </c>
@@ -1323,7 +1316,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>44595</v>
       </c>
@@ -1348,7 +1341,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>44595</v>
       </c>
@@ -1373,7 +1366,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>44595</v>
       </c>
@@ -1398,7 +1391,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>44595</v>
       </c>
@@ -1423,7 +1416,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>44595</v>
       </c>
@@ -1448,7 +1441,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>44595</v>
       </c>
@@ -1473,7 +1466,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>44595</v>
       </c>
@@ -1498,7 +1491,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>44608</v>
       </c>
@@ -1523,7 +1516,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>44608</v>
       </c>
@@ -1550,7 +1543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44608</v>
       </c>
@@ -1575,7 +1568,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44608</v>
       </c>
@@ -1600,7 +1593,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44608</v>
       </c>
@@ -1625,7 +1618,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44608</v>
       </c>
@@ -1650,7 +1643,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>44608</v>
       </c>
@@ -1675,7 +1668,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>44608</v>
       </c>
@@ -1702,7 +1695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>44608</v>
       </c>
@@ -1729,7 +1722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>44608</v>
       </c>
@@ -1754,7 +1747,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>44608</v>
       </c>
@@ -1781,7 +1774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>44608</v>
       </c>
@@ -1806,7 +1799,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>44608</v>
       </c>
@@ -1831,7 +1824,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>44608</v>
       </c>
@@ -1849,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>47</v>
@@ -1858,213 +1851,186 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
         <v>44608</v>
       </c>
-      <c r="B33" s="19">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="C33" s="19">
-        <v>0.67569444444444438</v>
-      </c>
-      <c r="D33" s="18">
-        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>2.0833333333332149E-3</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="B33" s="24">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D33" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+    <row r="34" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>44608</v>
       </c>
-      <c r="B34" s="24">
-        <v>0.67638888888888893</v>
-      </c>
-      <c r="C34" s="24">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D34" s="20">
-        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>2.4999999999999911E-2</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>8</v>
+      <c r="B34" s="19">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="C34" s="19">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="D34" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>4.8611111111112049E-3</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+    <row r="35" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
         <v>44608</v>
       </c>
-      <c r="B35" s="19">
-        <v>0.7715277777777777</v>
-      </c>
-      <c r="C35" s="19">
-        <v>0.77638888888888891</v>
-      </c>
-      <c r="D35" s="18">
-        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>4.8611111111112049E-3</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="B35" s="24">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D35" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>44608</v>
       </c>
       <c r="B36" s="24">
-        <v>0.77708333333333324</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="C36" s="24">
-        <v>0.77986111111111101</v>
+        <v>0.78541666666666676</v>
       </c>
       <c r="D36" s="20">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>2.7777777777777679E-3</v>
+        <v>5.5555555555557579E-3</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="35"/>
-    </row>
-    <row r="37" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>44608</v>
       </c>
       <c r="B37" s="24">
-        <v>0.77986111111111101</v>
+        <v>0.88124999999999998</v>
       </c>
       <c r="C37" s="24">
-        <v>0.78541666666666676</v>
+        <v>0.90138888888888891</v>
       </c>
       <c r="D37" s="20">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>5.5555555555557579E-3</v>
+        <v>2.0138888888888928E-2</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>44608</v>
       </c>
       <c r="B38" s="24">
-        <v>0.88124999999999998</v>
+        <v>0.91041666666666676</v>
       </c>
       <c r="C38" s="24">
-        <v>0.90138888888888891</v>
+        <v>0.91180555555555554</v>
       </c>
       <c r="D38" s="20">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>2.0138888888888928E-2</v>
+        <v>1.3888888888887729E-3</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="35"/>
-    </row>
-    <row r="39" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>44608</v>
       </c>
       <c r="B39" s="24">
-        <v>0.91041666666666676</v>
-      </c>
-      <c r="C39" s="24">
-        <v>0.91180555555555554</v>
-      </c>
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="C39" s="24"/>
       <c r="D39" s="20">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>1.3888888888887729E-3</v>
+        <v>-0.91388888888888886</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
-        <v>44608</v>
-      </c>
-      <c r="B40" s="24">
-        <v>0.91388888888888886</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="20">
-        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>-0.91388888888888886</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="35"/>
+      <c r="H39" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2080,7 +2046,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D207:D1048576 D1:D180">
+  <conditionalFormatting sqref="D206:D1048576 D1:D179">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
@@ -2109,16 +2075,15 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H35" r:id="rId4" xr:uid="{98BB3E39-3F7A-49D8-83E9-FCCD2E7E56CD}"/>
-    <hyperlink ref="H37" r:id="rId5" xr:uid="{A1CE36F6-48A0-4BA4-83E4-CA0A554C9DF9}"/>
+    <hyperlink ref="H32" r:id="rId1"/>
+    <hyperlink ref="H33" r:id="rId2"/>
+    <hyperlink ref="H34" r:id="rId3"/>
+    <hyperlink ref="H36" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A59BA3-49CF-4F46-97DE-60503DF20D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -216,12 +217,33 @@
   </si>
   <si>
     <t>J'ai créer la fonction avec le début du jeu</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>J'ai créer la fonction Menu</t>
+  </si>
+  <si>
+    <t>J'ai taper toutes les options danns le menu</t>
+  </si>
+  <si>
+    <t>J'ai comencer à débuger la question du menu</t>
+  </si>
+  <si>
+    <t>J'ai trouvé une manière de compter que le premier caractère dans un scanf et donc débuger mon menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Benzonana + https://stackoverflow.com/questions/21234262/turbo-c-scanf-to-only-accept-one-character </t>
+  </si>
+  <si>
+    <t>J'ai commenter ma fonction Début du jeu et Menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
     <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
@@ -737,18 +759,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H39" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H44" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
-    <tableColumn id="1" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" name="Heure début" dataDxfId="15"/>
-    <tableColumn id="3" name="Heure fin" dataDxfId="14"/>
-    <tableColumn id="4" name="Durée" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="13">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lieu" dataDxfId="12"/>
-    <tableColumn id="6" name="Thème" dataDxfId="11"/>
-    <tableColumn id="7" name="Description" dataDxfId="10"/>
-    <tableColumn id="8" name="Sources" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1016,26 +1038,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="10" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="105.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="105.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="42.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44594</v>
       </c>
@@ -1086,7 +1108,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44594</v>
       </c>
@@ -1113,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>44594</v>
       </c>
@@ -1138,7 +1160,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>44594</v>
       </c>
@@ -1164,7 +1186,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>44594</v>
       </c>
@@ -1189,7 +1211,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>44594</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>44594</v>
       </c>
@@ -1241,7 +1263,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44594</v>
       </c>
@@ -1266,7 +1288,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>44594</v>
       </c>
@@ -1291,7 +1313,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>44595</v>
       </c>
@@ -1316,7 +1338,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>44595</v>
       </c>
@@ -1341,7 +1363,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>44595</v>
       </c>
@@ -1366,7 +1388,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>44595</v>
       </c>
@@ -1391,7 +1413,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>44595</v>
       </c>
@@ -1416,7 +1438,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>44595</v>
       </c>
@@ -1441,7 +1463,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>44595</v>
       </c>
@@ -1466,7 +1488,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>44595</v>
       </c>
@@ -1491,7 +1513,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>44608</v>
       </c>
@@ -1516,7 +1538,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>44608</v>
       </c>
@@ -1543,7 +1565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>44608</v>
       </c>
@@ -1568,7 +1590,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>44608</v>
       </c>
@@ -1593,7 +1615,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>44608</v>
       </c>
@@ -1618,7 +1640,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>44608</v>
       </c>
@@ -1643,7 +1665,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>44608</v>
       </c>
@@ -1668,7 +1690,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>44608</v>
       </c>
@@ -1695,7 +1717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>44608</v>
       </c>
@@ -1722,7 +1744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>44608</v>
       </c>
@@ -1747,7 +1769,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>44608</v>
       </c>
@@ -1774,7 +1796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>44608</v>
       </c>
@@ -1799,7 +1821,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>44608</v>
       </c>
@@ -1824,7 +1846,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>44608</v>
       </c>
@@ -1851,7 +1873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>44608</v>
       </c>
@@ -1878,7 +1900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>44608</v>
       </c>
@@ -1905,7 +1927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>44608</v>
       </c>
@@ -1930,7 +1952,7 @@
       </c>
       <c r="H35" s="35"/>
     </row>
-    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>44608</v>
       </c>
@@ -1957,7 +1979,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>44608</v>
       </c>
@@ -1982,7 +2004,7 @@
       </c>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>44608</v>
       </c>
@@ -2009,17 +2031,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>44608</v>
       </c>
       <c r="B39" s="24">
         <v>0.91388888888888886</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="24">
+        <v>0.9159722222222223</v>
+      </c>
       <c r="D39" s="20">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>-0.91388888888888886</v>
+        <v>2.083333333333437E-3</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>13</v>
@@ -2031,6 +2055,133 @@
         <v>60</v>
       </c>
       <c r="H39" s="35"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <v>44609</v>
+      </c>
+      <c r="B40" s="19">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="C40" s="19">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="D40" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.3888888888889395E-3</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
+        <v>44609</v>
+      </c>
+      <c r="B41" s="24">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D41" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <v>44609</v>
+      </c>
+      <c r="B42" s="24">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D42" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <v>44609</v>
+      </c>
+      <c r="B43" s="24">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="D43" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>4.3055555555555569E-2</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
+        <v>44609</v>
+      </c>
+      <c r="B44" s="19">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="D44" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2046,7 +2197,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D206:D1048576 D1:D179">
+  <conditionalFormatting sqref="D209:D1048576 D1:D182">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
@@ -2075,10 +2226,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H32" r:id="rId1"/>
-    <hyperlink ref="H33" r:id="rId2"/>
-    <hyperlink ref="H34" r:id="rId3"/>
-    <hyperlink ref="H36" r:id="rId4"/>
+    <hyperlink ref="H32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A59BA3-49CF-4F46-97DE-60503DF20D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B3DCBA-4235-4203-B86A-9E7CAFB1709B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -174,9 +174,6 @@
     <t>J'ai créer les Features 0.1 (bleu) et 1.0 (rouge)</t>
   </si>
   <si>
-    <t>J'ai ajouté les Storys: S'authentifier en tant que joueur; Créer les 5 cartes; Choisir une grille au hasard; Afficher la liste de scores;  Logger les faits importants</t>
-  </si>
-  <si>
     <t>J'ai cherché sur internet comment dire Bataille Navale en anglais (Battleship)</t>
   </si>
   <si>
@@ -216,18 +213,9 @@
     <t>Début du jeu</t>
   </si>
   <si>
-    <t>J'ai créer la fonction avec le début du jeu</t>
-  </si>
-  <si>
     <t>Menu</t>
   </si>
   <si>
-    <t>J'ai créer la fonction Menu</t>
-  </si>
-  <si>
-    <t>J'ai taper toutes les options danns le menu</t>
-  </si>
-  <si>
     <t>J'ai comencer à débuger la question du menu</t>
   </si>
   <si>
@@ -237,7 +225,73 @@
     <t xml:space="preserve">M. Benzonana + https://stackoverflow.com/questions/21234262/turbo-c-scanf-to-only-accept-one-character </t>
   </si>
   <si>
-    <t>J'ai commenter ma fonction Début du jeu et Menu</t>
+    <t>Aide du jeu</t>
+  </si>
+  <si>
+    <t>J'ai fais un switch pour directionner le joeur chez la fonction choisi</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/infinite-loop-in-c</t>
+  </si>
+  <si>
+    <t>J'ai cherché sur internet comment faire une boucle infini et je l'ai implémenté</t>
+  </si>
+  <si>
+    <t>J'ai commenté ma boucle infini et mon switch</t>
+  </si>
+  <si>
+    <t>J'ai créer ma fonction "rules"</t>
+  </si>
+  <si>
+    <t>J'ai cherché les règles de la bataille navale sur internet et je les ai mit dans ma fonction "rules"</t>
+  </si>
+  <si>
+    <t>J'ai commenté ma fonction "start" et "menu"</t>
+  </si>
+  <si>
+    <t>J'ai créer la fonction "menu"</t>
+  </si>
+  <si>
+    <t>J'ai créer la fonction "start"</t>
+  </si>
+  <si>
+    <t>https://www.thesprucecrafts.com/the-basic-rules-of-battleship-411069</t>
+  </si>
+  <si>
+    <t>J'ai ajouté les Storys: S'authentifier en tant que joueur; Créer les 5 cartes; Choisir une grille au hasard; Afficher la liste de scores; Logger les faits importants</t>
+  </si>
+  <si>
+    <t>J'ai ajouté les storys: Afficher les coups sur la grille; Détecter les bateaux détruits; Calculer le score; Créer la grille</t>
+  </si>
+  <si>
+    <t>Créer la grille</t>
+  </si>
+  <si>
+    <t>J'ai dessiner ma grille dans un bloc-notes</t>
+  </si>
+  <si>
+    <t>J'ai créer la fonction "grid", cela affiche la grille</t>
+  </si>
+  <si>
+    <t>J'ai taper toutes les options dans le menu</t>
+  </si>
+  <si>
+    <t>https://cboard.cprogramming.com/windows-programming/72624-how-get-your-program-run-fullscreen-console.html</t>
+  </si>
+  <si>
+    <t>Plein écran</t>
+  </si>
+  <si>
+    <t>J'ai créer la fonction "fullscreen" qui force le programme à se mettre en plein écran, j'ai trouvé cette fonction sur internet</t>
+  </si>
+  <si>
+    <t>https://www.theurbanpenguin.com/4184-2/</t>
+  </si>
+  <si>
+    <t>Couleur des caractères</t>
+  </si>
+  <si>
+    <t>J'ai créer les foctions "cyanColor" et "yellowColor", ces deux fonctions changent touts les caractères qui suivent en bleu clair et jaune, j'ai ajouté aussi la fonction "resetColor" qui remet la couleur des caractères par défaut. J'ai trouvé ces trois fonctions sur internet</t>
   </si>
 </sst>
 </file>
@@ -759,7 +813,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H44" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H54" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
@@ -1039,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1842,7 +1896,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H31" s="5"/>
     </row>
@@ -1864,13 +1918,13 @@
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="35" t="s">
         <v>47</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1891,13 +1945,13 @@
         <v>8</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1918,13 +1972,13 @@
         <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1945,10 +1999,10 @@
         <v>13</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" s="35"/>
     </row>
@@ -1970,13 +2024,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="35" t="s">
         <v>52</v>
-      </c>
-      <c r="H36" s="35" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1997,10 +2051,10 @@
         <v>13</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H37" s="35"/>
     </row>
@@ -2022,13 +2076,13 @@
         <v>13</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2049,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H39" s="35"/>
     </row>
@@ -2074,10 +2128,10 @@
         <v>8</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H40" s="4"/>
     </row>
@@ -2099,10 +2153,10 @@
         <v>8</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -2124,10 +2178,10 @@
         <v>8</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -2149,13 +2203,13 @@
         <v>8</v>
       </c>
       <c r="F43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H43" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2176,12 +2230,270 @@
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
+        <v>44609</v>
+      </c>
+      <c r="B45" s="24">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D45" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
+        <v>44609</v>
+      </c>
+      <c r="B46" s="19">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="16">
+        <v>44609</v>
+      </c>
+      <c r="B47" s="19">
+        <v>0.75069444444444444</v>
+      </c>
+      <c r="C47" s="19">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="D47" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>44609</v>
+      </c>
+      <c r="B48" s="19">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="D48" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <v>44609</v>
+      </c>
+      <c r="B49" s="24">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="D49" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.2916666666666696E-2</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
+        <v>44609</v>
+      </c>
+      <c r="B50" s="24">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="D50" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.2500000000000067E-2</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <v>44609</v>
+      </c>
+      <c r="B51" s="24">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D51" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
+        <v>44609</v>
+      </c>
+      <c r="B52" s="24">
+        <v>0.88263888888888886</v>
+      </c>
+      <c r="C52" s="24">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D52" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>9.7222222222222987E-3</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21">
+        <v>44609</v>
+      </c>
+      <c r="B53" s="24">
+        <v>0.89374999999999993</v>
+      </c>
+      <c r="C53" s="24">
+        <v>0.90069444444444446</v>
+      </c>
+      <c r="D53" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>44609</v>
+      </c>
+      <c r="B54" s="19">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="C54" s="19">
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="D54" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>7.6388888888889728E-3</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2197,7 +2509,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D209:D1048576 D1:D182">
+  <conditionalFormatting sqref="D214:D1048576 D1:D187">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr showObjects="none"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B3DCBA-4235-4203-B86A-9E7CAFB1709B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -292,12 +291,45 @@
   </si>
   <si>
     <t>J'ai créer les foctions "cyanColor" et "yellowColor", ces deux fonctions changent touts les caractères qui suivent en bleu clair et jaune, j'ai ajouté aussi la fonction "resetColor" qui remet la couleur des caractères par défaut. J'ai trouvé ces trois fonctions sur internet</t>
+  </si>
+  <si>
+    <t>Demander les coordonées</t>
+  </si>
+  <si>
+    <t>M. Viret m'a expliquer comment demander une colonne</t>
+  </si>
+  <si>
+    <t>Deébugger</t>
+  </si>
+  <si>
+    <t>J'ai débugger la fonction qui demande une colonne</t>
+  </si>
+  <si>
+    <t>Commenter</t>
+  </si>
+  <si>
+    <t>J'ai commenter les fonctions askLine et askColumn</t>
+  </si>
+  <si>
+    <t>Traduction</t>
+  </si>
+  <si>
+    <t>Mise en point de mon planning</t>
+  </si>
+  <si>
+    <t>J'ai comencé à traduire toutes mes phrases du jeu en français</t>
+  </si>
+  <si>
+    <t>J'ai fini de traduire toutes mes phrases en français</t>
+  </si>
+  <si>
+    <t>J'ai comencé la maquete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
     <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
@@ -813,18 +845,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H54" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H61" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="13">
+    <tableColumn id="1" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" name="Heure début" dataDxfId="15"/>
+    <tableColumn id="3" name="Heure fin" dataDxfId="14"/>
+    <tableColumn id="4" name="Durée" dataDxfId="13">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
+    <tableColumn id="5" name="Lieu" dataDxfId="12"/>
+    <tableColumn id="6" name="Thème" dataDxfId="11"/>
+    <tableColumn id="7" name="Description" dataDxfId="10"/>
+    <tableColumn id="8" name="Sources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1092,26 +1124,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="10" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="105.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="42.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="105.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44594</v>
       </c>
@@ -1162,7 +1194,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44594</v>
       </c>
@@ -1189,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44594</v>
       </c>
@@ -1214,7 +1246,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44594</v>
       </c>
@@ -1240,7 +1272,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44594</v>
       </c>
@@ -1265,7 +1297,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44594</v>
       </c>
@@ -1292,7 +1324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44594</v>
       </c>
@@ -1317,7 +1349,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44594</v>
       </c>
@@ -1342,7 +1374,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>44594</v>
       </c>
@@ -1367,7 +1399,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>44595</v>
       </c>
@@ -1392,7 +1424,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>44595</v>
       </c>
@@ -1417,7 +1449,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>44595</v>
       </c>
@@ -1442,7 +1474,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>44595</v>
       </c>
@@ -1467,7 +1499,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>44595</v>
       </c>
@@ -1492,7 +1524,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>44595</v>
       </c>
@@ -1517,7 +1549,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>44595</v>
       </c>
@@ -1542,7 +1574,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>44595</v>
       </c>
@@ -1567,7 +1599,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>44608</v>
       </c>
@@ -1592,7 +1624,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>44608</v>
       </c>
@@ -1619,7 +1651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44608</v>
       </c>
@@ -1644,7 +1676,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44608</v>
       </c>
@@ -1669,7 +1701,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44608</v>
       </c>
@@ -1694,7 +1726,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44608</v>
       </c>
@@ -1719,7 +1751,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>44608</v>
       </c>
@@ -1744,7 +1776,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>44608</v>
       </c>
@@ -1771,7 +1803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>44608</v>
       </c>
@@ -1798,7 +1830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>44608</v>
       </c>
@@ -1823,7 +1855,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>44608</v>
       </c>
@@ -1850,7 +1882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>44608</v>
       </c>
@@ -1875,7 +1907,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>44608</v>
       </c>
@@ -1900,7 +1932,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>44608</v>
       </c>
@@ -1927,7 +1959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>44608</v>
       </c>
@@ -1954,7 +1986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44608</v>
       </c>
@@ -1981,7 +2013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>44608</v>
       </c>
@@ -2006,7 +2038,7 @@
       </c>
       <c r="H35" s="35"/>
     </row>
-    <row r="36" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>44608</v>
       </c>
@@ -2033,7 +2065,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>44608</v>
       </c>
@@ -2058,7 +2090,7 @@
       </c>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>44608</v>
       </c>
@@ -2085,7 +2117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>44608</v>
       </c>
@@ -2110,7 +2142,7 @@
       </c>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>44609</v>
       </c>
@@ -2135,7 +2167,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>44609</v>
       </c>
@@ -2160,7 +2192,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>44609</v>
       </c>
@@ -2185,7 +2217,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>44609</v>
       </c>
@@ -2212,7 +2244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44609</v>
       </c>
@@ -2237,7 +2269,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>44609</v>
       </c>
@@ -2262,7 +2294,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44609</v>
       </c>
@@ -2289,7 +2321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>44609</v>
       </c>
@@ -2314,7 +2346,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44609</v>
       </c>
@@ -2339,7 +2371,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>44609</v>
       </c>
@@ -2366,7 +2398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>44609</v>
       </c>
@@ -2391,7 +2423,7 @@
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>44609</v>
       </c>
@@ -2416,7 +2448,7 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>44609</v>
       </c>
@@ -2441,7 +2473,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>44609</v>
       </c>
@@ -2468,7 +2500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>44609</v>
       </c>
@@ -2494,6 +2526,185 @@
       <c r="H54" s="4" t="s">
         <v>83</v>
       </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>44622</v>
+      </c>
+      <c r="B55" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="D55" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.2638888888888884E-2</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
+        <v>44622</v>
+      </c>
+      <c r="B56" s="24">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="D56" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="21">
+        <v>44622</v>
+      </c>
+      <c r="B57" s="24">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D57" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>4.1666666666667074E-3</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="21">
+        <v>44622</v>
+      </c>
+      <c r="B58" s="24">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="D58" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>5.5555555555555913E-3</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="21">
+        <v>44622</v>
+      </c>
+      <c r="B59" s="24">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="D59" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="21">
+        <v>44622</v>
+      </c>
+      <c r="B60" s="24">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C60" s="24">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="D60" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>5.5555555555555913E-3</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
+        <v>44622</v>
+      </c>
+      <c r="B61" s="24">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="C61" s="24">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="D61" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.9166666666666619E-2</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H61" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2509,7 +2720,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D214:D1048576 D1:D187">
+  <conditionalFormatting sqref="D220:D1048576 D1:D193">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
@@ -2538,10 +2749,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H32" r:id="rId1"/>
+    <hyperlink ref="H33" r:id="rId2"/>
+    <hyperlink ref="H34" r:id="rId3"/>
+    <hyperlink ref="H36" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -324,6 +324,33 @@
   </si>
   <si>
     <t>J'ai comencé la maquete</t>
+  </si>
+  <si>
+    <t>J'ai transformer la lettre de la colonne en numéro(ex.: A = 1)</t>
+  </si>
+  <si>
+    <t>M. Viret https://www.google.com/search?q=ascii+table&amp;rlz=1C1PNJJ_frCH968CH968&amp;source=lnms&amp;tbm=isch&amp;sa=X&amp;ved=2ahUKEwjB0t_xsqn2AhURP-wKHZtWAAIQ_AUoAXoECAEQAw&amp;biw=1744&amp;bih=917&amp;dpr=1.1#imgrc=P0o7oyvJKm4ETM</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/1469711/converting-letters-to-numbers-in-c</t>
+  </si>
+  <si>
+    <t>J'ai commenter ma fonction ColumnNumber</t>
+  </si>
+  <si>
+    <t>Affichage des coups dans la grille</t>
+  </si>
+  <si>
+    <t>J'ai comencé la fonction qui affiche les coups dans la grille</t>
+  </si>
+  <si>
+    <t>J'ai fini la fonction qui affiche les coups sur la grille. Ça ne marche pas</t>
+  </si>
+  <si>
+    <t>J'ai comencé à débugger ma fonction qui affiche les coups sur la grille</t>
+  </si>
+  <si>
+    <t>Romain</t>
   </si>
 </sst>
 </file>
@@ -845,7 +872,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H61" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H66" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="16"/>
     <tableColumn id="2" name="Heure début" dataDxfId="15"/>
@@ -1125,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2421,7 @@
       <c r="G49" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="35" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2527,7 +2554,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>44622</v>
       </c>
@@ -2551,7 +2578,7 @@
         <v>87</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2705,6 +2732,133 @@
         <v>96</v>
       </c>
       <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21">
+        <v>44623</v>
+      </c>
+      <c r="B62" s="24">
+        <v>0.34375</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="D62" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>44623</v>
+      </c>
+      <c r="B63" s="19">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="C63" s="19">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="D63" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
+        <v>44623</v>
+      </c>
+      <c r="B64" s="24">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C64" s="24">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D64" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.2638888888888884E-2</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="21">
+        <v>44623</v>
+      </c>
+      <c r="B65" s="24">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="C65" s="24">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="D65" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>44623</v>
+      </c>
+      <c r="B66" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>-0.44444444444444442</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2720,7 +2874,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D220:D1048576 D1:D193">
+  <conditionalFormatting sqref="D223:D1048576 D1:D196">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
@@ -2753,11 +2907,12 @@
     <hyperlink ref="H33" r:id="rId2"/>
     <hyperlink ref="H34" r:id="rId3"/>
     <hyperlink ref="H36" r:id="rId4"/>
+    <hyperlink ref="H49" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -625,6 +625,189 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -675,189 +858,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -872,18 +872,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H66" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H66" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
   <tableColumns count="8">
-    <tableColumn id="1" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" name="Heure début" dataDxfId="15"/>
-    <tableColumn id="3" name="Heure fin" dataDxfId="14"/>
-    <tableColumn id="4" name="Durée" dataDxfId="13">
+    <tableColumn id="1" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" name="Heure début" dataDxfId="6"/>
+    <tableColumn id="3" name="Heure fin" dataDxfId="5"/>
+    <tableColumn id="4" name="Durée" dataDxfId="4">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lieu" dataDxfId="12"/>
-    <tableColumn id="6" name="Thème" dataDxfId="11"/>
-    <tableColumn id="7" name="Description" dataDxfId="10"/>
-    <tableColumn id="8" name="Sources" dataDxfId="9"/>
+    <tableColumn id="5" name="Lieu" dataDxfId="3"/>
+    <tableColumn id="6" name="Thème" dataDxfId="2"/>
+    <tableColumn id="7" name="Description" dataDxfId="1"/>
+    <tableColumn id="8" name="Sources" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,10 +2842,12 @@
       <c r="B66" s="19">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C66" s="19"/>
+      <c r="C66" s="19">
+        <v>0.50972222222222219</v>
+      </c>
       <c r="D66" s="18">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>-0.44444444444444442</v>
+        <v>6.5277777777777768E-2</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>8</v>
@@ -2862,43 +2864,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Date">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Date">
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D223:D1048576 D1:D196">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Durée">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Durée">
       <formula>NOT(ISERROR(SEARCH("Durée",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Durée">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Durée">
       <formula>NOT(ISERROR(SEARCH("Durée",D19)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B3DCBA-4235-4203-B86A-9E7CAFB1709B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870E152A-E9B7-4CA2-91D2-19DD58B28E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -292,6 +292,33 @@
   </si>
   <si>
     <t>J'ai créer les foctions "cyanColor" et "yellowColor", ces deux fonctions changent touts les caractères qui suivent en bleu clair et jaune, j'ai ajouté aussi la fonction "resetColor" qui remet la couleur des caractères par défaut. J'ai trouvé ces trois fonctions sur internet</t>
+  </si>
+  <si>
+    <t>Correction de bug</t>
+  </si>
+  <si>
+    <t>M. Viret m'a aidé a résoudre un problème sur GitHub</t>
+  </si>
+  <si>
+    <t>J'ai mis toutes mes storys dans les sprints</t>
+  </si>
+  <si>
+    <t>Bateaux</t>
+  </si>
+  <si>
+    <t>J'ai créer le tableau avec les bateaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aide  </t>
+  </si>
+  <si>
+    <t>J'ai aidé Musli avec ces liignes pour la grille</t>
+  </si>
+  <si>
+    <t>Cordonées</t>
+  </si>
+  <si>
+    <t>J'ai commencé la fonction qui demande les cordonées au joueur</t>
   </si>
 </sst>
 </file>
@@ -813,7 +840,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H54" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H59" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
@@ -1093,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2495,6 +2522,133 @@
         <v>83</v>
       </c>
     </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
+        <v>44610</v>
+      </c>
+      <c r="B55" s="19">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="D55" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
+        <v>44610</v>
+      </c>
+      <c r="B56" s="24">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="D56" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.4722222222220989E-3</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <v>44610</v>
+      </c>
+      <c r="B57" s="19">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="C57" s="19">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D57" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.5694444444444464E-2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
+        <v>44610</v>
+      </c>
+      <c r="B58" s="24">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="D58" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.4722222222220989E-3</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="21">
+        <v>44610</v>
+      </c>
+      <c r="B59" s="24">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D59" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
@@ -2509,7 +2663,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D214:D1048576 D1:D187">
+  <conditionalFormatting sqref="D217:D1048576 D1:D190">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr showObjects="none"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870E152A-E9B7-4CA2-91D2-19DD58B28E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -319,12 +318,21 @@
   </si>
   <si>
     <t>J'ai commencé la fonction qui demande les cordonées au joueur</t>
+  </si>
+  <si>
+    <t>Le prof m'a aidé a corrigé le bug des cordonées</t>
+  </si>
+  <si>
+    <t>Affichage de coups</t>
+  </si>
+  <si>
+    <t>J'ai commencé a afficher les coups dans la grille</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
     <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
@@ -840,18 +848,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H59" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H61" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="13">
+    <tableColumn id="1" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" name="Heure début" dataDxfId="15"/>
+    <tableColumn id="3" name="Heure fin" dataDxfId="14"/>
+    <tableColumn id="4" name="Durée" dataDxfId="13">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
+    <tableColumn id="5" name="Lieu" dataDxfId="12"/>
+    <tableColumn id="6" name="Thème" dataDxfId="11"/>
+    <tableColumn id="7" name="Description" dataDxfId="10"/>
+    <tableColumn id="8" name="Sources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1119,26 +1127,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="10" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="105.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="42.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="105.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44594</v>
       </c>
@@ -1189,7 +1197,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44594</v>
       </c>
@@ -1216,7 +1224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44594</v>
       </c>
@@ -1241,7 +1249,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44594</v>
       </c>
@@ -1267,7 +1275,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44594</v>
       </c>
@@ -1292,7 +1300,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44594</v>
       </c>
@@ -1319,7 +1327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44594</v>
       </c>
@@ -1344,7 +1352,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44594</v>
       </c>
@@ -1369,7 +1377,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>44594</v>
       </c>
@@ -1394,7 +1402,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>44595</v>
       </c>
@@ -1419,7 +1427,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>44595</v>
       </c>
@@ -1444,7 +1452,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>44595</v>
       </c>
@@ -1469,7 +1477,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>44595</v>
       </c>
@@ -1494,7 +1502,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>44595</v>
       </c>
@@ -1519,7 +1527,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>44595</v>
       </c>
@@ -1544,7 +1552,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>44595</v>
       </c>
@@ -1569,7 +1577,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>44595</v>
       </c>
@@ -1594,7 +1602,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>44608</v>
       </c>
@@ -1619,7 +1627,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>44608</v>
       </c>
@@ -1646,7 +1654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44608</v>
       </c>
@@ -1671,7 +1679,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44608</v>
       </c>
@@ -1696,7 +1704,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44608</v>
       </c>
@@ -1721,7 +1729,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44608</v>
       </c>
@@ -1746,7 +1754,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>44608</v>
       </c>
@@ -1771,7 +1779,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>44608</v>
       </c>
@@ -1798,7 +1806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>44608</v>
       </c>
@@ -1825,7 +1833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>44608</v>
       </c>
@@ -1850,7 +1858,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>44608</v>
       </c>
@@ -1877,7 +1885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>44608</v>
       </c>
@@ -1902,7 +1910,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>44608</v>
       </c>
@@ -1927,7 +1935,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>44608</v>
       </c>
@@ -1954,7 +1962,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>44608</v>
       </c>
@@ -1981,7 +1989,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44608</v>
       </c>
@@ -2008,7 +2016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>44608</v>
       </c>
@@ -2033,7 +2041,7 @@
       </c>
       <c r="H35" s="35"/>
     </row>
-    <row r="36" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>44608</v>
       </c>
@@ -2060,7 +2068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>44608</v>
       </c>
@@ -2085,7 +2093,7 @@
       </c>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>44608</v>
       </c>
@@ -2112,7 +2120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>44608</v>
       </c>
@@ -2137,7 +2145,7 @@
       </c>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>44609</v>
       </c>
@@ -2162,7 +2170,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>44609</v>
       </c>
@@ -2187,7 +2195,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>44609</v>
       </c>
@@ -2212,7 +2220,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>44609</v>
       </c>
@@ -2239,7 +2247,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44609</v>
       </c>
@@ -2264,7 +2272,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>44609</v>
       </c>
@@ -2289,7 +2297,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44609</v>
       </c>
@@ -2316,7 +2324,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>44609</v>
       </c>
@@ -2341,7 +2349,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44609</v>
       </c>
@@ -2366,7 +2374,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>44609</v>
       </c>
@@ -2393,7 +2401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>44609</v>
       </c>
@@ -2418,7 +2426,7 @@
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>44609</v>
       </c>
@@ -2443,7 +2451,7 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>44609</v>
       </c>
@@ -2468,7 +2476,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>44609</v>
       </c>
@@ -2495,7 +2503,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>44609</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>44610</v>
       </c>
@@ -2549,7 +2557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>44610</v>
       </c>
@@ -2574,7 +2582,7 @@
       </c>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>44610</v>
       </c>
@@ -2599,7 +2607,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>44610</v>
       </c>
@@ -2624,7 +2632,7 @@
       </c>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>44610</v>
       </c>
@@ -2648,6 +2656,58 @@
         <v>94</v>
       </c>
       <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="21">
+        <v>44624</v>
+      </c>
+      <c r="B60" s="24">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="C60" s="24">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="D60" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>7.6388888888889728E-3</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
+        <v>44624</v>
+      </c>
+      <c r="B61" s="24">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="C61" s="24">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D61" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.2916666666666585E-2</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2663,7 +2723,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D217:D1048576 D1:D190">
+  <conditionalFormatting sqref="D219:D1048576 D1:D192">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
@@ -2692,10 +2752,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H32" r:id="rId1"/>
+    <hyperlink ref="H33" r:id="rId2"/>
+    <hyperlink ref="H34" r:id="rId3"/>
+    <hyperlink ref="H36" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -206,9 +206,6 @@
     <t>https://www.includehelp.com/c-programming-questions/how-to-clear-output-screen-in-c.aspx</t>
   </si>
   <si>
-    <t>J'ai ajouté une comande que j'ai trouvé sur internet pour nettoyer Output de l'écran</t>
-  </si>
-  <si>
     <t>Début du jeu</t>
   </si>
   <si>
@@ -308,12 +305,6 @@
     <t>J'ai créer le tableau avec les bateaux</t>
   </si>
   <si>
-    <t xml:space="preserve">Aide  </t>
-  </si>
-  <si>
-    <t>J'ai aidé Musli avec ces liignes pour la grille</t>
-  </si>
-  <si>
     <t>Cordonées</t>
   </si>
   <si>
@@ -327,6 +318,39 @@
   </si>
   <si>
     <t>J'ai commencé a afficher les coups dans la grille</t>
+  </si>
+  <si>
+    <t>J'ai corrigé des bugs dans la function shoot</t>
+  </si>
+  <si>
+    <t>J'ai enfin fini de corrigé touts les bugs. Les coups s'affichent sur la grille</t>
+  </si>
+  <si>
+    <t>Commenter</t>
+  </si>
+  <si>
+    <t>J'ai fait encore des tests et j'ai comenté tout le code</t>
+  </si>
+  <si>
+    <t>Affichege des bateaux détruits</t>
+  </si>
+  <si>
+    <t>J'ai fini la function qui remplace touts les "X" par des "#" quand un bateau est détruit</t>
+  </si>
+  <si>
+    <t>J'ai ajouté une comande que j'ai trouvé sur internet pour nettoyer l'Output de l'écran</t>
+  </si>
+  <si>
+    <t>Créer la function "victory"</t>
+  </si>
+  <si>
+    <t>J'ai cherché comment transformer des charactères en rouge et j'ai fait une function "victory"</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>J'ai fais différentes personnes testés ma bataille navale</t>
   </si>
 </sst>
 </file>
@@ -791,14 +815,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -848,7 +872,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H61" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H66" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="16"/>
     <tableColumn id="2" name="Heure début" dataDxfId="15"/>
@@ -1128,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1955,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" s="5"/>
     </row>
@@ -1953,7 +1977,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>46</v>
@@ -1980,7 +2004,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>49</v>
@@ -2007,7 +2031,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>54</v>
@@ -2034,7 +2058,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>55</v>
@@ -2059,7 +2083,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>51</v>
@@ -2086,7 +2110,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>53</v>
@@ -2111,10 +2135,10 @@
         <v>13</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="H38" s="35" t="s">
         <v>56</v>
@@ -2138,10 +2162,10 @@
         <v>13</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" s="35"/>
     </row>
@@ -2163,10 +2187,10 @@
         <v>8</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" s="4"/>
     </row>
@@ -2188,10 +2212,10 @@
         <v>8</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -2213,10 +2237,10 @@
         <v>8</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -2238,13 +2262,13 @@
         <v>8</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2265,10 +2289,10 @@
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H44" s="4"/>
     </row>
@@ -2290,10 +2314,10 @@
         <v>13</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H45" s="5"/>
     </row>
@@ -2315,13 +2339,13 @@
         <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2342,10 +2366,10 @@
         <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H47" s="4"/>
     </row>
@@ -2367,10 +2391,10 @@
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -2392,13 +2416,13 @@
         <v>13</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2422,7 +2446,7 @@
         <v>21</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H50" s="5"/>
     </row>
@@ -2444,10 +2468,10 @@
         <v>13</v>
       </c>
       <c r="F51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="H51" s="5"/>
     </row>
@@ -2469,10 +2493,10 @@
         <v>13</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H52" s="5"/>
     </row>
@@ -2494,13 +2518,13 @@
         <v>13</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="H53" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2521,13 +2545,13 @@
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>83</v>
+      <c r="H54" s="36" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2548,10 +2572,10 @@
         <v>8</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>11</v>
@@ -2578,7 +2602,7 @@
         <v>39</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H56" s="5"/>
     </row>
@@ -2600,10 +2624,10 @@
         <v>8</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H57" s="4"/>
     </row>
@@ -2612,64 +2636,66 @@
         <v>44610</v>
       </c>
       <c r="B58" s="24">
-        <v>0.60486111111111118</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="C58" s="24">
-        <v>0.60833333333333328</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="D58" s="20">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>3.4722222222220989E-3</v>
+        <v>1.6666666666666607E-2</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
-        <v>44610</v>
+        <v>44624</v>
       </c>
       <c r="B59" s="24">
-        <v>0.6118055555555556</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="C59" s="24">
-        <v>0.62847222222222221</v>
+        <v>0.57361111111111118</v>
       </c>
       <c r="D59" s="20">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>1.6666666666666607E-2</v>
+        <v>7.6388888888889728E-3</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H59" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>44624</v>
       </c>
       <c r="B60" s="24">
-        <v>0.56597222222222221</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="C60" s="24">
-        <v>0.57361111111111118</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="D60" s="20">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>7.6388888888889728E-3</v>
+        <v>2.2916666666666585E-2</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>8</v>
@@ -2678,36 +2704,163 @@
         <v>93</v>
       </c>
       <c r="G60" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>44629</v>
+      </c>
+      <c r="B61" s="19">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="C61" s="19">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D61" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>9.0277777777778012E-3</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="21">
+        <v>44629</v>
+      </c>
+      <c r="B62" s="24">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="D62" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="21">
-        <v>44624</v>
-      </c>
-      <c r="B61" s="24">
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="C61" s="24">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D61" s="20">
-        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>2.2916666666666585E-2</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G61" s="5" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>44629</v>
+      </c>
+      <c r="B63" s="19">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="C63" s="19">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="D63" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.9861111111111061E-2</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H61" s="5"/>
+      <c r="G63" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
+        <v>44629</v>
+      </c>
+      <c r="B64" s="24">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="C64" s="24">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="D64" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="21">
+        <v>44629</v>
+      </c>
+      <c r="B65" s="24">
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="C65" s="24">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="D65" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="21">
+        <v>44629</v>
+      </c>
+      <c r="B66" s="24">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="C66" s="24">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D66" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.6666666666666718E-2</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2723,7 +2876,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D219:D1048576 D1:D192">
+  <conditionalFormatting sqref="D222:D1048576 D1:D195">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
@@ -2756,11 +2909,12 @@
     <hyperlink ref="H33" r:id="rId2"/>
     <hyperlink ref="H34" r:id="rId3"/>
     <hyperlink ref="H36" r:id="rId4"/>
+    <hyperlink ref="H54" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B65BC-C2D2-4A1F-9D74-8E0149E42F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -320,9 +322,6 @@
     <t>J'ai commencé a afficher les coups dans la grille</t>
   </si>
   <si>
-    <t>J'ai corrigé des bugs dans la function shoot</t>
-  </si>
-  <si>
     <t>J'ai enfin fini de corrigé touts les bugs. Les coups s'affichent sur la grille</t>
   </si>
   <si>
@@ -332,31 +331,46 @@
     <t>J'ai fait encore des tests et j'ai comenté tout le code</t>
   </si>
   <si>
-    <t>Affichege des bateaux détruits</t>
-  </si>
-  <si>
-    <t>J'ai fini la function qui remplace touts les "X" par des "#" quand un bateau est détruit</t>
-  </si>
-  <si>
     <t>J'ai ajouté une comande que j'ai trouvé sur internet pour nettoyer l'Output de l'écran</t>
   </si>
   <si>
-    <t>Créer la function "victory"</t>
-  </si>
-  <si>
-    <t>J'ai cherché comment transformer des charactères en rouge et j'ai fait une function "victory"</t>
-  </si>
-  <si>
     <t>Tests</t>
   </si>
   <si>
-    <t>J'ai fais différentes personnes testés ma bataille navale</t>
+    <t>J'ai changé la couleur des coups dans la grille</t>
+  </si>
+  <si>
+    <t>Affichage des bateaux détruits</t>
+  </si>
+  <si>
+    <t>Caractéres en rouge et en vert</t>
+  </si>
+  <si>
+    <t>J'ai fait une fonction "victory" qui affiiche une phrase de victoire et la grille final</t>
+  </si>
+  <si>
+    <t>J'ai corrigé des bugs dans la fonction shoot</t>
+  </si>
+  <si>
+    <t>J'ai fini la fonction qui remplace touts les "X" par des "#" quand un bateau est détruit</t>
+  </si>
+  <si>
+    <t>Créer la fonction "victory"</t>
+  </si>
+  <si>
+    <t>J'ai fait des fonctions qui transforment les charactères en vert ou en rouge</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>J'ai créer une variable score qui se calcule avec une règle de trois</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
     <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
@@ -815,14 +829,14 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -872,18 +886,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H66" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H68" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
-    <tableColumn id="1" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" name="Heure début" dataDxfId="15"/>
-    <tableColumn id="3" name="Heure fin" dataDxfId="14"/>
-    <tableColumn id="4" name="Durée" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="13">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lieu" dataDxfId="12"/>
-    <tableColumn id="6" name="Thème" dataDxfId="11"/>
-    <tableColumn id="7" name="Description" dataDxfId="10"/>
-    <tableColumn id="8" name="Sources" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1151,26 +1165,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="10" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="105.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="105.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="42.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44594</v>
       </c>
@@ -1221,7 +1235,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44594</v>
       </c>
@@ -1248,7 +1262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>44594</v>
       </c>
@@ -1273,7 +1287,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>44594</v>
       </c>
@@ -1299,7 +1313,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>44594</v>
       </c>
@@ -1324,7 +1338,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>44594</v>
       </c>
@@ -1351,7 +1365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>44594</v>
       </c>
@@ -1376,7 +1390,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44594</v>
       </c>
@@ -1401,7 +1415,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>44594</v>
       </c>
@@ -1426,7 +1440,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>44595</v>
       </c>
@@ -1451,7 +1465,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>44595</v>
       </c>
@@ -1476,7 +1490,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>44595</v>
       </c>
@@ -1501,7 +1515,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>44595</v>
       </c>
@@ -1526,7 +1540,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>44595</v>
       </c>
@@ -1551,7 +1565,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>44595</v>
       </c>
@@ -1576,7 +1590,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>44595</v>
       </c>
@@ -1601,7 +1615,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>44595</v>
       </c>
@@ -1626,7 +1640,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>44608</v>
       </c>
@@ -1651,7 +1665,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>44608</v>
       </c>
@@ -1678,7 +1692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>44608</v>
       </c>
@@ -1703,7 +1717,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>44608</v>
       </c>
@@ -1728,7 +1742,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>44608</v>
       </c>
@@ -1753,7 +1767,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>44608</v>
       </c>
@@ -1778,7 +1792,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>44608</v>
       </c>
@@ -1803,7 +1817,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>44608</v>
       </c>
@@ -1830,7 +1844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>44608</v>
       </c>
@@ -1857,7 +1871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>44608</v>
       </c>
@@ -1882,7 +1896,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>44608</v>
       </c>
@@ -1909,7 +1923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>44608</v>
       </c>
@@ -1934,7 +1948,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>44608</v>
       </c>
@@ -1959,7 +1973,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>44608</v>
       </c>
@@ -1986,7 +2000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>44608</v>
       </c>
@@ -2013,7 +2027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>44608</v>
       </c>
@@ -2040,7 +2054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>44608</v>
       </c>
@@ -2065,7 +2079,7 @@
       </c>
       <c r="H35" s="35"/>
     </row>
-    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>44608</v>
       </c>
@@ -2092,7 +2106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>44608</v>
       </c>
@@ -2117,7 +2131,7 @@
       </c>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>44608</v>
       </c>
@@ -2138,13 +2152,13 @@
         <v>57</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H38" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>44608</v>
       </c>
@@ -2169,7 +2183,7 @@
       </c>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>44609</v>
       </c>
@@ -2194,7 +2208,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>44609</v>
       </c>
@@ -2219,7 +2233,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>44609</v>
       </c>
@@ -2244,7 +2258,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>44609</v>
       </c>
@@ -2271,7 +2285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>44609</v>
       </c>
@@ -2296,7 +2310,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <v>44609</v>
       </c>
@@ -2321,7 +2335,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>44609</v>
       </c>
@@ -2348,7 +2362,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>44609</v>
       </c>
@@ -2373,7 +2387,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>44609</v>
       </c>
@@ -2398,7 +2412,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <v>44609</v>
       </c>
@@ -2425,7 +2439,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <v>44609</v>
       </c>
@@ -2450,7 +2464,7 @@
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
         <v>44609</v>
       </c>
@@ -2475,7 +2489,7 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>44609</v>
       </c>
@@ -2500,7 +2514,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <v>44609</v>
       </c>
@@ -2527,7 +2541,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>44609</v>
       </c>
@@ -2554,7 +2568,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>44610</v>
       </c>
@@ -2581,7 +2595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
         <v>44610</v>
       </c>
@@ -2606,7 +2620,7 @@
       </c>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>44610</v>
       </c>
@@ -2631,7 +2645,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="21">
         <v>44610</v>
       </c>
@@ -2656,7 +2670,7 @@
       </c>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="21">
         <v>44624</v>
       </c>
@@ -2683,7 +2697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="21">
         <v>44624</v>
       </c>
@@ -2708,7 +2722,7 @@
       </c>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>44629</v>
       </c>
@@ -2729,11 +2743,11 @@
         <v>85</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="21">
         <v>44629</v>
       </c>
@@ -2754,13 +2768,13 @@
         <v>85</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>44629</v>
       </c>
@@ -2778,14 +2792,14 @@
         <v>8</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="21">
         <v>44629</v>
       </c>
@@ -2803,14 +2817,14 @@
         <v>8</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
         <v>44629</v>
       </c>
@@ -2828,16 +2842,14 @@
         <v>8</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>44629</v>
       </c>
@@ -2855,12 +2867,64 @@
         <v>8</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="21">
+        <v>44629</v>
+      </c>
+      <c r="B67" s="24">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="C67" s="24">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D67" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="21">
+        <v>44629</v>
+      </c>
+      <c r="B68" s="24">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="C68" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="D68" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>7.6388888888889728E-3</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H68" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2876,7 +2940,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D222:D1048576 D1:D195">
+  <conditionalFormatting sqref="D224:D1048576 D1:D197">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
@@ -2905,11 +2969,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H32" r:id="rId1"/>
-    <hyperlink ref="H33" r:id="rId2"/>
-    <hyperlink ref="H34" r:id="rId3"/>
-    <hyperlink ref="H36" r:id="rId4"/>
-    <hyperlink ref="H54" r:id="rId5"/>
+    <hyperlink ref="H32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H54" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr showObjects="none"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B65BC-C2D2-4A1F-9D74-8E0149E42F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -365,12 +364,18 @@
   </si>
   <si>
     <t>J'ai créer une variable score qui se calcule avec une règle de trois</t>
+  </si>
+  <si>
+    <t>J'ai créer la fonction "Score" qui calcule le score et l'affiche en couleurs en dépendant de sa valeur</t>
+  </si>
+  <si>
+    <t>J'ai vérifier tout mon code et j'ai commenté se qu'il fallait</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
     <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
@@ -886,18 +891,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H68" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H70" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="13">
+    <tableColumn id="1" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" name="Heure début" dataDxfId="15"/>
+    <tableColumn id="3" name="Heure fin" dataDxfId="14"/>
+    <tableColumn id="4" name="Durée" dataDxfId="13">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
+    <tableColumn id="5" name="Lieu" dataDxfId="12"/>
+    <tableColumn id="6" name="Thème" dataDxfId="11"/>
+    <tableColumn id="7" name="Description" dataDxfId="10"/>
+    <tableColumn id="8" name="Sources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1165,26 +1170,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="10" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="105.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="42.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="105.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44594</v>
       </c>
@@ -1235,7 +1240,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44594</v>
       </c>
@@ -1262,7 +1267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44594</v>
       </c>
@@ -1287,7 +1292,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44594</v>
       </c>
@@ -1313,7 +1318,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44594</v>
       </c>
@@ -1338,7 +1343,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44594</v>
       </c>
@@ -1365,7 +1370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>44594</v>
       </c>
@@ -1390,7 +1395,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>44594</v>
       </c>
@@ -1415,7 +1420,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>44594</v>
       </c>
@@ -1440,7 +1445,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>44595</v>
       </c>
@@ -1465,7 +1470,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>44595</v>
       </c>
@@ -1490,7 +1495,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>44595</v>
       </c>
@@ -1515,7 +1520,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>44595</v>
       </c>
@@ -1540,7 +1545,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>44595</v>
       </c>
@@ -1565,7 +1570,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>44595</v>
       </c>
@@ -1590,7 +1595,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>44595</v>
       </c>
@@ -1615,7 +1620,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>44595</v>
       </c>
@@ -1640,7 +1645,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>44608</v>
       </c>
@@ -1665,7 +1670,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>44608</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>44608</v>
       </c>
@@ -1717,7 +1722,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>44608</v>
       </c>
@@ -1742,7 +1747,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>44608</v>
       </c>
@@ -1767,7 +1772,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>44608</v>
       </c>
@@ -1792,7 +1797,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>44608</v>
       </c>
@@ -1817,7 +1822,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>44608</v>
       </c>
@@ -1844,7 +1849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>44608</v>
       </c>
@@ -1871,7 +1876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>44608</v>
       </c>
@@ -1896,7 +1901,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>44608</v>
       </c>
@@ -1923,7 +1928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>44608</v>
       </c>
@@ -1948,7 +1953,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>44608</v>
       </c>
@@ -1973,7 +1978,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>44608</v>
       </c>
@@ -2000,7 +2005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>44608</v>
       </c>
@@ -2027,7 +2032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44608</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>44608</v>
       </c>
@@ -2079,7 +2084,7 @@
       </c>
       <c r="H35" s="35"/>
     </row>
-    <row r="36" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>44608</v>
       </c>
@@ -2106,7 +2111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>44608</v>
       </c>
@@ -2131,7 +2136,7 @@
       </c>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>44608</v>
       </c>
@@ -2158,7 +2163,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>44608</v>
       </c>
@@ -2183,7 +2188,7 @@
       </c>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>44609</v>
       </c>
@@ -2208,7 +2213,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>44609</v>
       </c>
@@ -2233,7 +2238,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>44609</v>
       </c>
@@ -2258,7 +2263,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>44609</v>
       </c>
@@ -2285,7 +2290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44609</v>
       </c>
@@ -2310,7 +2315,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>44609</v>
       </c>
@@ -2335,7 +2340,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44609</v>
       </c>
@@ -2362,7 +2367,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>44609</v>
       </c>
@@ -2387,7 +2392,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44609</v>
       </c>
@@ -2412,7 +2417,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>44609</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>44609</v>
       </c>
@@ -2464,7 +2469,7 @@
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>44609</v>
       </c>
@@ -2489,7 +2494,7 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>44609</v>
       </c>
@@ -2514,7 +2519,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>44609</v>
       </c>
@@ -2541,7 +2546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>44609</v>
       </c>
@@ -2568,7 +2573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>44610</v>
       </c>
@@ -2595,7 +2600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>44610</v>
       </c>
@@ -2620,7 +2625,7 @@
       </c>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>44610</v>
       </c>
@@ -2645,7 +2650,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>44610</v>
       </c>
@@ -2670,7 +2675,7 @@
       </c>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>44624</v>
       </c>
@@ -2697,7 +2702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>44624</v>
       </c>
@@ -2722,7 +2727,7 @@
       </c>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>44629</v>
       </c>
@@ -2747,7 +2752,7 @@
       </c>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>44629</v>
       </c>
@@ -2774,7 +2779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>44629</v>
       </c>
@@ -2799,7 +2804,7 @@
       </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>44629</v>
       </c>
@@ -2824,7 +2829,7 @@
       </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>44629</v>
       </c>
@@ -2849,7 +2854,7 @@
       </c>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>44629</v>
       </c>
@@ -2874,7 +2879,7 @@
       </c>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>44629</v>
       </c>
@@ -2901,7 +2906,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>44629</v>
       </c>
@@ -2925,6 +2930,56 @@
         <v>109</v>
       </c>
       <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="21">
+        <v>44630</v>
+      </c>
+      <c r="B69" s="24">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="C69" s="24">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="D69" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="21">
+        <v>44630</v>
+      </c>
+      <c r="B70" s="24">
+        <v>0.4375</v>
+      </c>
+      <c r="C70" s="24">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="D70" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H70" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2940,7 +2995,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D224:D1048576 D1:D197">
+  <conditionalFormatting sqref="D226:D1048576 D1:D199">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
@@ -2969,11 +3024,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H54" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H32" r:id="rId1"/>
+    <hyperlink ref="H33" r:id="rId2"/>
+    <hyperlink ref="H34" r:id="rId3"/>
+    <hyperlink ref="H36" r:id="rId4"/>
+    <hyperlink ref="H54" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -370,6 +371,36 @@
   </si>
   <si>
     <t>J'ai vérifier tout mon code et j'ai commenté se qu'il fallait</t>
+  </si>
+  <si>
+    <t>Finalisation 0.1</t>
+  </si>
+  <si>
+    <t>J'ai créer un release où j'ai donc mis ma bataille navale 0.1 sur GitHub</t>
+  </si>
+  <si>
+    <t>J'ai mis a jour mes sprints et mes tasks sur GitHub</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/c-program-to-read-contents-of-whole-file/</t>
+  </si>
+  <si>
+    <t>Créer 5 grilles</t>
+  </si>
+  <si>
+    <t>https://www.programiz.com/c-programming/c-file-input-output</t>
+  </si>
+  <si>
+    <t>J'ai cherché et testé de lire un fichier. Je n'ai pas réussi</t>
+  </si>
+  <si>
+    <t>J'ai trouvé comment lire un fichier</t>
+  </si>
+  <si>
+    <t>J'ai essayer de mettre les valeurs du fichier dans la variable du tableau. J'ai pas réussi</t>
+  </si>
+  <si>
+    <t>M. Wyssa</t>
   </si>
 </sst>
 </file>
@@ -891,7 +922,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H70" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H76" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="16"/>
     <tableColumn id="2" name="Heure début" dataDxfId="15"/>
@@ -1171,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,7 +2371,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44609</v>
       </c>
@@ -2980,6 +3011,162 @@
         <v>111</v>
       </c>
       <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="21">
+        <v>44631</v>
+      </c>
+      <c r="B71" s="24">
+        <v>0.84791666666666676</v>
+      </c>
+      <c r="C71" s="24">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="D71" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.8055555555555491E-2</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="21">
+        <v>44636</v>
+      </c>
+      <c r="B72" s="24">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="C72" s="24">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="D72" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.9444444444444431E-2</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21">
+        <v>44636</v>
+      </c>
+      <c r="B73" s="24">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C73" s="24">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="D73" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.0138888888888928E-2</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21">
+        <v>44636</v>
+      </c>
+      <c r="B74" s="24">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C74" s="24">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D74" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="21">
+        <v>44636</v>
+      </c>
+      <c r="B75" s="24">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C75" s="24">
+        <v>0.4375</v>
+      </c>
+      <c r="D75" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="21">
+        <v>44636</v>
+      </c>
+      <c r="B76" s="24">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="C76" s="24">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="D76" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2995,7 +3182,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D226:D1048576 D1:D199">
+  <conditionalFormatting sqref="D232:D1048576 D1:D205">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
@@ -3029,11 +3216,13 @@
     <hyperlink ref="H34" r:id="rId3"/>
     <hyperlink ref="H36" r:id="rId4"/>
     <hyperlink ref="H54" r:id="rId5"/>
+    <hyperlink ref="H74" r:id="rId6"/>
+    <hyperlink ref="H73" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -401,6 +400,12 @@
   </si>
   <si>
     <t>M. Wyssa</t>
+  </si>
+  <si>
+    <t>Créer les 5 grilles</t>
+  </si>
+  <si>
+    <t>M. Viret m'a expliqué et aidé sur Teams comment lire un fichier. J'ai donc plus de problèmes</t>
   </si>
 </sst>
 </file>
@@ -922,7 +927,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H76" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H77" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="16"/>
     <tableColumn id="2" name="Heure début" dataDxfId="15"/>
@@ -1202,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,6 +3173,33 @@
         <v>121</v>
       </c>
     </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>44638</v>
+      </c>
+      <c r="B77" s="24">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C77" s="24">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="D77" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.7083333333333348E-2</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
@@ -3182,7 +3214,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D232:D1048576 D1:D205">
+  <conditionalFormatting sqref="D233:D1048576 D1:D206">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -406,6 +406,21 @@
   </si>
   <si>
     <t>M. Viret m'a expliqué et aidé sur Teams comment lire un fichier. J'ai donc plus de problèmes</t>
+  </si>
+  <si>
+    <t>J'ai organizer un peu mon code et je l'ai comenté</t>
+  </si>
+  <si>
+    <t>J'ai crée une fonction qui choisi une carte aléatoire (entre 1 et 5)</t>
+  </si>
+  <si>
+    <t>J'ai crée les 5 grilles</t>
+  </si>
+  <si>
+    <t>Fonction randomGrid</t>
+  </si>
+  <si>
+    <t>J'ai commenté et testé une dernière fois ma fonction randomGrid</t>
   </si>
 </sst>
 </file>
@@ -927,7 +942,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H77" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H81" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="16"/>
     <tableColumn id="2" name="Heure début" dataDxfId="15"/>
@@ -1207,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,6 +3215,106 @@
         <v>11</v>
       </c>
     </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>44643</v>
+      </c>
+      <c r="B78" s="19">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="C78" s="19">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="D78" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
+        <v>44643</v>
+      </c>
+      <c r="B79" s="24">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="C79" s="24">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D79" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="21">
+        <v>44643</v>
+      </c>
+      <c r="B80" s="24">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C80" s="24">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="D80" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.6805555555555536E-2</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="21">
+        <v>44643</v>
+      </c>
+      <c r="B81" s="24">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="C81" s="24">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="D81" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.4722222222222654E-3</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H81" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
@@ -3214,7 +3329,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D233:D1048576 D1:D206">
+  <conditionalFormatting sqref="D236:D1048576 D1:D209">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="132">
   <si>
     <t>Date</t>
   </si>
@@ -421,6 +421,15 @@
   </si>
   <si>
     <t>J'ai commenté et testé une dernière fois ma fonction randomGrid</t>
+  </si>
+  <si>
+    <t>M. Viret https://www.programiz.com/c-programming/library-function/string.h/strlen</t>
+  </si>
+  <si>
+    <t>Pseudos</t>
+  </si>
+  <si>
+    <t>J'ai créer la fonction qui demande et stock le pseudo de l'utilisateur</t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H81" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H83" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="16"/>
     <tableColumn id="2" name="Heure début" dataDxfId="15"/>
@@ -1222,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,6 +3324,52 @@
       </c>
       <c r="H81" s="5"/>
     </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <v>44645</v>
+      </c>
+      <c r="B82" s="19">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C82" s="19">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="D82" s="18">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.9861111111111116E-2</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="21">
+        <v>44645</v>
+      </c>
+      <c r="B83" s="24">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C83" s="24">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="D83" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
@@ -3329,7 +3384,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D236:D1048576 D1:D209">
+  <conditionalFormatting sqref="D237:D1048576 D1:D210">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -430,6 +430,15 @@
   </si>
   <si>
     <t>J'ai créer la fonction qui demande et stock le pseudo de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>J'ai fait la fonction qui sauvegarde les scores dans le fichier des scores</t>
+  </si>
+  <si>
+    <t>J'ai comencé la fonction qui va afficher tout les scores sauvegarés</t>
   </si>
 </sst>
 </file>
@@ -951,7 +960,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H83" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H84" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="16"/>
     <tableColumn id="2" name="Heure début" dataDxfId="15"/>
@@ -1231,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3365,10 +3374,41 @@
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
         <v>1.8055555555555602E-2</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="21">
+        <v>44648</v>
+      </c>
+      <c r="B84" s="24">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C84" s="24">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D84" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.1805555555555569E-2</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H84" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -3384,7 +3424,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D237:D1048576 D1:D210">
+  <conditionalFormatting sqref="D238:D1048576 D1:D211">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="150">
   <si>
     <t>Date</t>
   </si>
@@ -439,6 +439,51 @@
   </si>
   <si>
     <t>J'ai comencé la fonction qui va afficher tout les scores sauvegarés</t>
+  </si>
+  <si>
+    <t>J'ai réussi à afficher touts les scores sauvegardés</t>
+  </si>
+  <si>
+    <t>M. Viret https://www.delftstack.com/howto/c/fscanf-line-by-line-in-c/</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Daniel a testé ma Bataille Navale</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>J'ai créer la fonction pour écrire les logs dans le fichier</t>
+  </si>
+  <si>
+    <t>J'ai corrigé l'erreur que Daniel a trouvé : La sauvegarde de score ne marchait pas</t>
+  </si>
+  <si>
+    <t>Jérémy</t>
+  </si>
+  <si>
+    <t>Jérémy a testé ma Bataille Navele</t>
+  </si>
+  <si>
+    <t>J'ai corrigé un problème sur mon 8ème sprint</t>
+  </si>
+  <si>
+    <t>Maquete</t>
+  </si>
+  <si>
+    <t>J'ai mit à jour et fini les maquetes</t>
+  </si>
+  <si>
+    <t>Fin de la Bataille Navale</t>
+  </si>
+  <si>
+    <t>J'ai regardé une dernière fois le code et j'ai mis à jour la date dans l'entête. J'ai fini la Bataille Navale</t>
   </si>
 </sst>
 </file>
@@ -960,7 +1005,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H84" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H93" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="16"/>
     <tableColumn id="2" name="Heure début" dataDxfId="15"/>
@@ -1240,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,6 +3455,239 @@
       </c>
       <c r="H84" s="5"/>
     </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="21">
+        <v>44650</v>
+      </c>
+      <c r="B85" s="24">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="C85" s="24">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="D85" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.1805555555555569E-2</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="21">
+        <v>44650</v>
+      </c>
+      <c r="B86" s="24">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="C86" s="24">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="D86" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>5.9027777777777735E-2</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="21">
+        <v>44650</v>
+      </c>
+      <c r="B87" s="24">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="C87" s="24">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="D87" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="21">
+        <v>44650</v>
+      </c>
+      <c r="B88" s="24">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="C88" s="24">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="D88" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="21">
+        <v>44650</v>
+      </c>
+      <c r="B89" s="24">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="C89" s="24">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="D89" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="21">
+        <v>44650</v>
+      </c>
+      <c r="B90" s="24">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="C90" s="24">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="D90" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>9.7222222222222987E-3</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="21">
+        <v>44650</v>
+      </c>
+      <c r="B91" s="24">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="C91" s="24">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="D91" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>5.5555555555556468E-3</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="21">
+        <v>44650</v>
+      </c>
+      <c r="B92" s="24">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="C92" s="24">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="D92" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>9.0277777777777457E-3</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="21">
+        <v>44650</v>
+      </c>
+      <c r="B93" s="24">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="C93" s="24">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="D93" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H93" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
@@ -3424,7 +3702,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D238:D1048576 D1:D211">
+  <conditionalFormatting sqref="D247:D1048576 D1:D220">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="152">
   <si>
     <t>Date</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>J'ai regardé une dernière fois le code et j'ai mis à jour la date dans l'entête. J'ai fini la Bataille Navale</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>J'ai fait le MCD</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1011,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H93" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H94" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="16"/>
     <tableColumn id="2" name="Heure début" dataDxfId="15"/>
@@ -1285,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3688,6 +3694,31 @@
       </c>
       <c r="H93" s="5"/>
     </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="21">
+        <v>44651</v>
+      </c>
+      <c r="B94" s="24">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="C94" s="24">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="D94" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H94" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
@@ -3702,7 +3733,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D247:D1048576 D1:D220">
+  <conditionalFormatting sqref="D248:D1048576 D1:D221">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -490,6 +490,15 @@
   </si>
   <si>
     <t>J'ai fait le MCD</t>
+  </si>
+  <si>
+    <t>Diagramme de flux</t>
+  </si>
+  <si>
+    <t>J'ai commencé le diagramme de flux</t>
+  </si>
+  <si>
+    <t>J'ai continué le diagramme de flux</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1020,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H94" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H96" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="16"/>
     <tableColumn id="2" name="Heure début" dataDxfId="15"/>
@@ -1291,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,6 +3728,56 @@
       </c>
       <c r="H94" s="5"/>
     </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="21">
+        <v>44652</v>
+      </c>
+      <c r="B95" s="24">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C95" s="24">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D95" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="21">
+        <v>44652</v>
+      </c>
+      <c r="B96" s="24">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C96" s="24">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="D96" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.4027777777777768E-2</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H96" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
@@ -3733,7 +3792,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D248:D1048576 D1:D221">
+  <conditionalFormatting sqref="D250:D1048576 D1:D223">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>

--- a/Journaux/JournalDeTravail.xlsx
+++ b/Journaux/JournalDeTravail.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPNV\1ere anee 2.0\MA\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4913E87A-900D-42F9-AAA1-BDB528B63E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -219,9 +220,6 @@
     <t>J'ai trouvé une manière de compter que le premier caractère dans un scanf et donc débuger mon menu</t>
   </si>
   <si>
-    <t xml:space="preserve">M. Benzonana + https://stackoverflow.com/questions/21234262/turbo-c-scanf-to-only-accept-one-character </t>
-  </si>
-  <si>
     <t>Aide du jeu</t>
   </si>
   <si>
@@ -499,12 +497,45 @@
   </si>
   <si>
     <t>J'ai continué le diagramme de flux</t>
+  </si>
+  <si>
+    <t>J'ai fini mon diagramme de flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Benzonana https://stackoverflow.com/questions/21234262/turbo-c-scanf-to-only-accept-one-character </t>
+  </si>
+  <si>
+    <t>Diagramme d'état</t>
+  </si>
+  <si>
+    <t>J'ai fait le diagramme d'état</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Diogo</t>
+  </si>
+  <si>
+    <t>Rendu</t>
+  </si>
+  <si>
+    <t>J'ai rendu la bataille navale et toute la documentation</t>
+  </si>
+  <si>
+    <t>J'ai créé la release 1.0</t>
+  </si>
+  <si>
+    <t>J'ai complété la documentation de la Bataille Navale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
     <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
@@ -658,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,6 +795,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1020,18 +1054,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H96" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H101" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="8">
-    <tableColumn id="1" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" name="Heure début" dataDxfId="15"/>
-    <tableColumn id="3" name="Heure fin" dataDxfId="14"/>
-    <tableColumn id="4" name="Durée" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="13">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lieu" dataDxfId="12"/>
-    <tableColumn id="6" name="Thème" dataDxfId="11"/>
-    <tableColumn id="7" name="Description" dataDxfId="10"/>
-    <tableColumn id="8" name="Sources" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1299,11 +1333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1426,7 @@
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2103,7 +2137,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="5"/>
     </row>
@@ -2286,7 +2320,7 @@
         <v>57</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H38" s="35" t="s">
         <v>56</v>
@@ -2313,7 +2347,7 @@
         <v>57</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" s="35"/>
     </row>
@@ -2338,7 +2372,7 @@
         <v>58</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H40" s="4"/>
     </row>
@@ -2363,7 +2397,7 @@
         <v>58</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -2416,7 +2450,7 @@
         <v>60</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2440,7 +2474,7 @@
         <v>58</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H44" s="4"/>
     </row>
@@ -2465,7 +2499,7 @@
         <v>58</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H45" s="5"/>
     </row>
@@ -2490,10 +2524,10 @@
         <v>58</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H46" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2517,7 +2551,7 @@
         <v>58</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" s="4"/>
     </row>
@@ -2539,10 +2573,10 @@
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -2564,13 +2598,13 @@
         <v>13</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2594,7 +2628,7 @@
         <v>21</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H50" s="5"/>
     </row>
@@ -2616,10 +2650,10 @@
         <v>13</v>
       </c>
       <c r="F51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="H51" s="5"/>
     </row>
@@ -2641,10 +2675,10 @@
         <v>13</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H52" s="5"/>
     </row>
@@ -2666,13 +2700,13 @@
         <v>13</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>79</v>
+      <c r="H53" s="35" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2693,13 +2727,13 @@
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="H54" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2720,10 +2754,10 @@
         <v>8</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>11</v>
@@ -2750,7 +2784,7 @@
         <v>39</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H56" s="5"/>
     </row>
@@ -2772,10 +2806,10 @@
         <v>8</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="H57" s="4"/>
     </row>
@@ -2797,10 +2831,10 @@
         <v>8</v>
       </c>
       <c r="F58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="H58" s="5"/>
     </row>
@@ -2822,10 +2856,10 @@
         <v>8</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>11</v>
@@ -2849,10 +2883,10 @@
         <v>8</v>
       </c>
       <c r="F60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H60" s="5"/>
     </row>
@@ -2874,10 +2908,10 @@
         <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H61" s="4"/>
     </row>
@@ -2899,10 +2933,10 @@
         <v>8</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>11</v>
@@ -2926,10 +2960,10 @@
         <v>8</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="H63" s="4"/>
     </row>
@@ -2951,10 +2985,10 @@
         <v>8</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H64" s="5"/>
     </row>
@@ -2976,10 +3010,10 @@
         <v>8</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H65" s="5"/>
     </row>
@@ -3001,10 +3035,10 @@
         <v>8</v>
       </c>
       <c r="F66" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="H66" s="5"/>
     </row>
@@ -3026,13 +3060,13 @@
         <v>13</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>82</v>
+        <v>106</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3053,10 +3087,10 @@
         <v>13</v>
       </c>
       <c r="F68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="H68" s="5"/>
     </row>
@@ -3078,10 +3112,10 @@
         <v>8</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H69" s="5"/>
     </row>
@@ -3103,10 +3137,10 @@
         <v>8</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H70" s="5"/>
     </row>
@@ -3128,10 +3162,10 @@
         <v>13</v>
       </c>
       <c r="F71" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="H71" s="5"/>
     </row>
@@ -3156,7 +3190,7 @@
         <v>39</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H72" s="5"/>
     </row>
@@ -3178,13 +3212,13 @@
         <v>8</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3205,13 +3239,13 @@
         <v>8</v>
       </c>
       <c r="F74" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H74" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H74" s="35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3232,10 +3266,10 @@
         <v>8</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H75" s="5"/>
     </row>
@@ -3257,13 +3291,13 @@
         <v>8</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G76" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3284,10 +3318,10 @@
         <v>8</v>
       </c>
       <c r="F77" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>11</v>
@@ -3311,10 +3345,10 @@
         <v>8</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H78" s="4"/>
     </row>
@@ -3336,10 +3370,10 @@
         <v>8</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H79" s="5"/>
     </row>
@@ -3361,10 +3395,10 @@
         <v>8</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H80" s="5"/>
     </row>
@@ -3386,10 +3420,10 @@
         <v>8</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H81" s="5"/>
     </row>
@@ -3411,13 +3445,13 @@
         <v>8</v>
       </c>
       <c r="F82" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="H82" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3438,10 +3472,10 @@
         <v>8</v>
       </c>
       <c r="F83" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="H83" s="5"/>
     </row>
@@ -3463,10 +3497,10 @@
         <v>8</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H84" s="5"/>
     </row>
@@ -3488,13 +3522,13 @@
         <v>8</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G85" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H85" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3515,10 +3549,10 @@
         <v>8</v>
       </c>
       <c r="F86" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="H86" s="5"/>
     </row>
@@ -3540,13 +3574,13 @@
         <v>8</v>
       </c>
       <c r="F87" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="H87" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3567,10 +3601,10 @@
         <v>8</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H88" s="5"/>
     </row>
@@ -3592,13 +3626,13 @@
         <v>8</v>
       </c>
       <c r="F89" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3619,13 +3653,13 @@
         <v>8</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3649,7 +3683,7 @@
         <v>21</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H91" s="5"/>
     </row>
@@ -3671,10 +3705,10 @@
         <v>8</v>
       </c>
       <c r="F92" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="H92" s="5"/>
     </row>
@@ -3696,10 +3730,10 @@
         <v>8</v>
       </c>
       <c r="F93" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="H93" s="5"/>
     </row>
@@ -3721,10 +3755,10 @@
         <v>8</v>
       </c>
       <c r="F94" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="H94" s="5"/>
     </row>
@@ -3743,13 +3777,13 @@
         <v>3.472222222222221E-2</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F95" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="H95" s="5"/>
     </row>
@@ -3768,15 +3802,142 @@
         <v>3.4027777777777768E-2</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G96" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="21">
+        <v>44652</v>
+      </c>
+      <c r="B97" s="24">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="C97" s="24">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="D97" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H96" s="5"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="21">
+        <v>44652</v>
+      </c>
+      <c r="B98" s="24">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="C98" s="24">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="D98" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="21">
+        <v>44652</v>
+      </c>
+      <c r="B99" s="24">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="C99" s="24">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D99" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>0.15972222222222221</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
+        <v>44652</v>
+      </c>
+      <c r="B100" s="24">
+        <v>0.9590277777777777</v>
+      </c>
+      <c r="C100" s="24">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D100" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>7.6388888888889728E-3</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="21">
+        <v>44652</v>
+      </c>
+      <c r="B101" s="24">
+        <v>0.96875</v>
+      </c>
+      <c r="C101" s="24">
+        <v>0.97638888888888886</v>
+      </c>
+      <c r="D101" s="20">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H101" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -3792,7 +3953,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D250:D1048576 D1:D223">
+  <conditionalFormatting sqref="D255:D1048576 D1:D228">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
@@ -3821,18 +3982,24 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H32" r:id="rId1"/>
-    <hyperlink ref="H33" r:id="rId2"/>
-    <hyperlink ref="H34" r:id="rId3"/>
-    <hyperlink ref="H36" r:id="rId4"/>
-    <hyperlink ref="H54" r:id="rId5"/>
-    <hyperlink ref="H74" r:id="rId6"/>
-    <hyperlink ref="H73" r:id="rId7"/>
+    <hyperlink ref="H32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H54" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H74" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H73" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H3" r:id="rId8" location=":~:text=Dans%20une%20feuille%20de%20calcul%2C%20s%C3%A9lectionnez%20la%20cellule%20dans%20laquelle,%2B%3B%20(point%2Dvirgule)." display="https://support.microsoft.com/fr-fr/office/ins%C3%A9rer-la-date-et-l-heure-actuelles-dans-une-cellule-b5663451-10b0-40ab-9e71-6b0ce5768138#:~:text=Dans%20une%20feuille%20de%20calcul%2C%20s%C3%A9lectionnez%20la%20cellule%20dans%20laquelle,%2B%3B%20(point%2Dvirgule)." xr:uid="{B494C8A2-27D3-4526-8D63-49B3B855AD23}"/>
+    <hyperlink ref="H38" r:id="rId9" xr:uid="{AA717118-82FF-4B54-B8B2-745B5B1395D7}"/>
+    <hyperlink ref="H46" r:id="rId10" xr:uid="{DC9E83ED-A3DC-4BF1-8B09-F7C78CD79D5E}"/>
+    <hyperlink ref="H49" r:id="rId11" xr:uid="{AC5D1EFB-D9A9-4CEC-BBAA-1F6DA4004C3C}"/>
+    <hyperlink ref="H53" r:id="rId12" xr:uid="{AA8FFF31-516A-4F29-8F32-4B52196C5CFD}"/>
+    <hyperlink ref="H67" r:id="rId13" xr:uid="{AE230766-E464-4E56-AA87-B870601EDB21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>